--- a/biology/Zoologie/Grande_orphie/Grande_orphie.xlsx
+++ b/biology/Zoologie/Grande_orphie/Grande_orphie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tylosurus acus, l’Aiguille voyeuse, Grande orphie ou simplement Orphie, est une espèce de poissons de la famille des Belonidae. Elle est répandue dans toutes les mers tropicales du globe à proximité des côtes. Elle est parfois pêchée.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'Aiguille voyeuse est largement répandue dans les mers tropicales du monde entier. Elle se divise en quatre sous-espèces :
 T. a. acus (Lacepède, 1803) dans l'Atlantique occidental (Massachusetts, États-Unis jusqu'au Brésil) et l'Atlantique oriental (au large du Maroc et de la Méditerranée occidentale) ;
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corps est allongé ; les mâchoires supérieure et inférieure sont extrêmement longues, formant un bec robuste armé de dents très pointues ; les fentes branchiales sont absentes. Les narines se trouvent dans une dépression devant les yeux (fosse nasale) ; les nageoires pelviennes sont abdominales ; il y a 20 à 26 rayons dorsaux ; la nageoire anale est courte, mesurant 9,7 à 11,7 fois la longueur du corps ; il y a une petite quille latérale noire de chaque côté du pédoncule caudal ; la nageoire caudale est profondément fourchue[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps est allongé ; les mâchoires supérieure et inférieure sont extrêmement longues, formant un bec robuste armé de dents très pointues ; les fentes branchiales sont absentes. Les narines se trouvent dans une dépression devant les yeux (fosse nasale) ; les nageoires pelviennes sont abdominales ; il y a 20 à 26 rayons dorsaux ; la nageoire anale est courte, mesurant 9,7 à 11,7 fois la longueur du corps ; il y a une petite quille latérale noire de chaque côté du pédoncule caudal ; la nageoire caudale est profondément fourchue.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce habite les eaux océaniques et néritiques. Elle se nourrit de petits poissons. Elle pond des œufs qui peuvent être trouvés attachés à des objets dans l'eau par des vrilles à la surface de l'œuf[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce habite les eaux océaniques et néritiques. Elle se nourrit de petits poissons. Elle pond des œufs qui peuvent être trouvés attachés à des objets dans l'eau par des vrilles à la surface de l'œuf.
 </t>
         </is>
       </c>
@@ -607,21 +625,93 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Sphyraena sous le protonyme Sphyraena acus, par le zoologiste français Bernard-Germain de Lacépède en 1803[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés « Aiguille voyeuse », « Grande orphie » ou « Orphie »[3],[1].
-Il existe quatre sous-espèces de Tylosurus acus, dont trois (acus , imperialis et rafale) se trouvent dans l'océan Atlantique et la quatrième (T. a. Melanotus) habite l'Indo-Pacifique. Tylosaurus pacificus était autrefois considéré comme une sous-espèce de T. acus mais est maintenant considéré comme une espèce distincte[4]. Bien que acus ait été supprimé par l'avis 900 de la CZN[Quoi ?], l'utilisation persistante de ce nom a permis de rétablir le nom de Tylosurus acus[5],[6].
-Sous-espèces
-Liste des sous-espèces selon le World Register of Marine Species                               (21 juin 2021)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Sphyraena sous le protonyme Sphyraena acus, par le zoologiste français Bernard-Germain de Lacépède en 1803.
+Ce taxon porte en français les noms vernaculaires ou normalisés « Aiguille voyeuse », « Grande orphie » ou « Orphie »,.
+Il existe quatre sous-espèces de Tylosurus acus, dont trois (acus , imperialis et rafale) se trouvent dans l'océan Atlantique et la quatrième (T. a. Melanotus) habite l'Indo-Pacifique. Tylosaurus pacificus était autrefois considéré comme une sous-espèce de T. acus mais est maintenant considéré comme une espèce distincte. Bien que acus ait été supprimé par l'avis 900 de la CZN[Quoi ?], l'utilisation persistante de ce nom a permis de rétablir le nom de Tylosurus acus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grande_orphie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_orphie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des sous-espèces selon le World Register of Marine Species                               (21 juin 2021) :
 Tylosurus acus acus (Lacepède, 1803)
 Tylosurus acus imperialis (Rafinesque, 1810)
 Tylosurus acus melanotus (Bleeker, 1850)
 Tylosurus acus rafale Collette &amp; Parin, 1970
 			Tylosurus acus melanotus.
 			Tylosurus acus acus.
-Synonymes
-Selon l'IRMNG  (21 juin 2021)[7], Tylosurus acus a pour synonymes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grande_orphie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_orphie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'IRMNG  (21 juin 2021), Tylosurus acus a pour synonymes :
 Belone altipinna Poey, 1860
 Belone appendiculatus Klunzinger, 1871
 Belone cantrainii (Cocco, 1833)
@@ -649,33 +739,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Grande_orphie</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Grande_orphie</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Utilisation par l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que vendue fraîche et salée, le marché de sa chair est limité à cause de sa couleur verte[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que vendue fraîche et salée, le marché de sa chair est limité à cause de sa couleur verte.
 </t>
         </is>
       </c>
